--- a/Floreisteria Fiorella/Analisis/Copia de SanMiguel.xlsx
+++ b/Floreisteria Fiorella/Analisis/Copia de SanMiguel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\Desafio1_DMD\Floreisteria Fiorella\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB47CAC-DE27-4EAA-B790-D50E802A4394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053669A-ED16-4966-8F81-F2D04FC443A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18630" yWindow="3795" windowWidth="18360" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1890,8 +1890,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1925,12 +1933,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2213,62 +2222,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView topLeftCell="C264" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:P301"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -17282,13 +17292,14 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" activeCellId="1" sqref="A172 B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="2" max="2" width="102.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17372,7 +17383,7 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -26202,7 +26213,7 @@
         <f>Hoja1!A172</f>
         <v>Bradford Hemerijk</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B172" s="5" t="str">
         <f>Hoja1!B172</f>
         <v>Rosas,Claveles,MacetasTierra,Girasoles,Hortensia,Globos,Tarjetas,fOrquidias,Lirios,Aurora,Tulipanes,Liston</v>
       </c>
@@ -32958,46 +32969,46 @@
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="3">
         <f>SUM(C2:C301)</f>
         <v>157</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="3">
         <f t="shared" ref="D302:N302" si="0">SUM(D2:D301)</f>
         <v>137</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="3">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="F302" s="4">
+      <c r="F302" s="3">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="G302" s="4">
+      <c r="G302" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H302" s="4">
+      <c r="H302" s="3">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="I302" s="4">
+      <c r="I302" s="3">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="J302" s="4">
+      <c r="J302" s="3">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="K302" s="4">
+      <c r="K302" s="3">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="L302" s="4">
+      <c r="L302" s="3">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
@@ -33009,11 +33020,11 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="O302" s="4">
+      <c r="O302" s="3">
         <f t="shared" ref="O302" si="1">SUM(O2:O301)</f>
         <v>149</v>
       </c>
-      <c r="P302" s="4">
+      <c r="P302" s="3">
         <f t="shared" ref="P302" si="2">SUM(P2:P301)</f>
         <v>149</v>
       </c>
